--- a/WebMarket/WebMarket/App_Data/VoltageRelay.xlsx
+++ b/WebMarket/WebMarket/App_Data/VoltageRelay.xlsx
@@ -121,15 +121,9 @@
     <t>Vp-10Aш (з шнуром)</t>
   </si>
   <si>
-    <t>Vp-10Aш.png</t>
-  </si>
-  <si>
     <t>Vp-10Aсу (мережевий продовжувач)</t>
   </si>
   <si>
-    <t>Vp-10Aсу.png</t>
-  </si>
-  <si>
     <t>Vp-10AN</t>
   </si>
   <si>
@@ -236,6 +230,12 @@
   </si>
   <si>
     <t>Volter</t>
+  </si>
+  <si>
+    <t>VP-10ACY.png</t>
+  </si>
+  <si>
+    <t>VP-10ASH.png</t>
   </si>
 </sst>
 </file>
@@ -586,10 +586,13 @@
   <dimension ref="A1:AB18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA22" sqref="AA22"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="32" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -641,10 +644,10 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S1" t="s">
         <v>16</v>
@@ -656,7 +659,7 @@
         <v>18</v>
       </c>
       <c r="V1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W1" t="s">
         <v>19</v>
@@ -703,14 +706,14 @@
         <v>5</v>
       </c>
       <c r="O2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S2" t="s">
         <v>28</v>
@@ -726,7 +729,7 @@
         <v>6</v>
       </c>
       <c r="Y2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Z2" t="s">
         <v>31</v>
@@ -764,14 +767,14 @@
         <v>5</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S3" t="s">
         <v>28</v>
@@ -787,7 +790,7 @@
         <v>10</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Z3" t="s">
         <v>31</v>
@@ -810,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -825,14 +828,14 @@
         <v>5</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S4" t="s">
         <v>28</v>
@@ -848,7 +851,7 @@
         <v>10</v>
       </c>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Z4" t="s">
         <v>31</v>
@@ -862,7 +865,7 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -871,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -886,14 +889,14 @@
         <v>5</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S5" t="s">
         <v>28</v>
@@ -909,7 +912,7 @@
         <v>10</v>
       </c>
       <c r="Y5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Z5" t="s">
         <v>31</v>
@@ -923,7 +926,7 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>124</v>
@@ -932,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -947,14 +950,14 @@
         <v>5</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S6" t="s">
         <v>28</v>
@@ -970,13 +973,13 @@
         <v>10</v>
       </c>
       <c r="Y6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Z6" t="s">
         <v>31</v>
       </c>
       <c r="AA6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB6">
         <v>2.2000000000000002</v>
@@ -984,7 +987,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>139</v>
@@ -993,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -1008,14 +1011,14 @@
         <v>5</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S7" t="s">
         <v>28</v>
@@ -1031,13 +1034,13 @@
         <v>16</v>
       </c>
       <c r="Y7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Z7" t="s">
         <v>31</v>
       </c>
       <c r="AA7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB7">
         <v>3.5</v>
@@ -1045,7 +1048,7 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>166</v>
@@ -1054,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1069,14 +1072,14 @@
         <v>5</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S8" t="s">
         <v>28</v>
@@ -1092,7 +1095,7 @@
         <v>16</v>
       </c>
       <c r="Y8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Z8" t="s">
         <v>31</v>
@@ -1106,7 +1109,7 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>200</v>
@@ -1115,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
         <v>27</v>
@@ -1130,14 +1133,14 @@
         <v>5</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S9" t="s">
         <v>28</v>
@@ -1156,7 +1159,7 @@
         <v>30</v>
       </c>
       <c r="Y9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Z9" t="s">
         <v>31</v>
@@ -1170,7 +1173,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>231</v>
@@ -1179,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
         <v>27</v>
@@ -1194,14 +1197,14 @@
         <v>5</v>
       </c>
       <c r="O10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S10" t="s">
         <v>28</v>
@@ -1220,7 +1223,7 @@
         <v>40</v>
       </c>
       <c r="Y10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Z10" t="s">
         <v>31</v>
@@ -1234,7 +1237,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>265</v>
@@ -1243,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
         <v>27</v>
@@ -1258,14 +1261,14 @@
         <v>5</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S11" t="s">
         <v>28</v>
@@ -1284,7 +1287,7 @@
         <v>50</v>
       </c>
       <c r="Y11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Z11" t="s">
         <v>31</v>
@@ -1298,7 +1301,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B12">
         <v>298</v>
@@ -1307,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
         <v>27</v>
@@ -1322,14 +1325,14 @@
         <v>5</v>
       </c>
       <c r="O12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S12" t="s">
         <v>28</v>
@@ -1348,7 +1351,7 @@
         <v>60</v>
       </c>
       <c r="Y12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Z12" t="s">
         <v>31</v>
@@ -1362,7 +1365,7 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>330</v>
@@ -1371,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
         <v>27</v>
@@ -1386,14 +1389,14 @@
         <v>5</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S13" t="s">
         <v>28</v>
@@ -1412,7 +1415,7 @@
         <v>80</v>
       </c>
       <c r="Y13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Z13" t="s">
         <v>31</v>
@@ -1426,7 +1429,7 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <v>443</v>
@@ -1435,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s">
         <v>27</v>
@@ -1450,14 +1453,14 @@
         <v>5</v>
       </c>
       <c r="O14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S14" t="s">
         <v>28</v>
@@ -1476,10 +1479,10 @@
         <v>80</v>
       </c>
       <c r="Y14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Z14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AA14" t="s">
         <v>32</v>
@@ -1490,7 +1493,7 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>312</v>
@@ -1499,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
         <v>27</v>
@@ -1514,14 +1517,14 @@
         <v>5</v>
       </c>
       <c r="O15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S15" t="s">
         <v>28</v>
@@ -1530,11 +1533,11 @@
         <v>29</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V15" s="2"/>
       <c r="Y15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Z15" t="s">
         <v>31</v>
@@ -1545,7 +1548,7 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B16">
         <v>220</v>
@@ -1554,7 +1557,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1566,7 +1569,7 @@
         <v>5</v>
       </c>
       <c r="O16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W16">
         <v>32</v>
@@ -1574,7 +1577,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B17">
         <v>240</v>
@@ -1583,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1595,7 +1598,7 @@
         <v>5</v>
       </c>
       <c r="O17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W17">
         <v>40</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B18">
         <v>320</v>
@@ -1612,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1624,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="O18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W18">
         <v>40</v>
